--- a/data/trans_dic/P26A_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P26A_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que cumple peor con la Medicación respecto al último mes</t>
+          <t>Población que cumple peor con la Medicación respecto al último mes (tasa de respuesta: 99,7%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,17 +905,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,17 +925,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,20 +945,50 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,12 +1105,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -956,12 +1125,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -971,27 +1140,57 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1223,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 10,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,20 +1243,50 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que cumple peor con la Medicación respecto al último mes (tasa de respuesta: 99,7%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
